--- a/src/main/resources/difference.xlsx
+++ b/src/main/resources/difference.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -26,7 +26,7 @@
     <t>price</t>
   </si>
   <si>
-    <t>discountpercentage</t>
+    <t>discountPercentage</t>
   </si>
   <si>
     <t>rating</t>
@@ -47,25 +47,25 @@
     <t>images</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>iPhone X</t>
-  </si>
-  <si>
-    <t>SIM-Free, Model A19211 6.5-inch Super Retina HD display with OLED technology A12 Bionic chip with ...</t>
-  </si>
-  <si>
-    <t>899</t>
-  </si>
-  <si>
-    <t>17.94</t>
-  </si>
-  <si>
-    <t>4.44</t>
-  </si>
-  <si>
-    <t>34</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>iPhone 9</t>
+  </si>
+  <si>
+    <t>An apple mobile which is nothing like apple</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>12.96</t>
+  </si>
+  <si>
+    <t>4.69</t>
+  </si>
+  <si>
+    <t>94</t>
   </si>
   <si>
     <t>Apple</t>
@@ -74,13 +74,13 @@
     <t>smartphones</t>
   </si>
   <si>
-    <t>https://cdn.dummyjson.com/product-images/2/thumbnail.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.dummyjson.com/product-images/2/1.jpg, https://cdn.dummyjson.com/product-images/2/2.jpg, https://cdn.dummyjson.com/product-images/2/3.jpg, https://cdn.dummyjson.com/product-images/2/thumbnail.jpg</t>
-  </si>
-  <si>
-    <t>iPhone XX</t>
+    <t>https://i.dummyjson.com/data/products/1/thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://i.dummyjson.com/data/products/1/1.jpg, https://i.dummyjson.com/data/products/1/2.jpg, https://i.dummyjson.com/data/products/1/3.jpg, https://i.dummyjson.com/data/products/1/4.jpg, https://i.dummyjson.com/data/products/1/thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>94.86</t>
   </si>
   <si>
     <t>master</t>
@@ -89,37 +89,73 @@
     <t>test</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Samsung Universe 9</t>
-  </si>
-  <si>
-    <t>Samsung's new variant which goes beyond Galaxy to the Universe</t>
-  </si>
-  <si>
-    <t>1249</t>
-  </si>
-  <si>
-    <t>15.46</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Huawei P30</t>
+  </si>
+  <si>
+    <t>Huawei’s re-badged P30 Pro New Edition was officially unveiled yesterday in Germany and now the device has made its way to the UK.</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>10.58</t>
   </si>
   <si>
     <t>4.09</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>https://cdn.dummyjson.com/product-images/3/thumbnail.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.dummyjson.com/product-images/3/1.jpg</t>
-  </si>
-  <si>
-    <t>SamsungG</t>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>https://i.dummyjson.com/data/products/5/thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://i.dummyjson.com/data/products/5/1.jpg, https://i.dummyjson.com/data/products/5/2.jpg, https://i.dummyjson.com/data/products/5/3.jpg</t>
+  </si>
+  <si>
+    <t>4.0955</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Eau De Perfume Spray</t>
+  </si>
+  <si>
+    <t>Genuine  Al-Rehab spray perfume from UAE/Saudi Arabia/Yemen High Quality</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>10.99</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Lord - Al-Rehab</t>
+  </si>
+  <si>
+    <t>fragrances</t>
+  </si>
+  <si>
+    <t>https://i.dummyjson.com/data/products/15/thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://i.dummyjson.com/data/products/15/1.jpg, https://i.dummyjson.com/data/products/15/2.jpg, https://i.dummyjson.com/data/products/15/3.jpg, https://i.dummyjson.com/data/products/15/4.jpg, https://i.dummyjson.com/data/products/15/thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>Genuine  Al-Rehab spray perfume from UAE/Saudi Arabia/Yemen High Qualitydfgd</t>
   </si>
 </sst>
 </file>
@@ -127,13 +163,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -196,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -206,13 +252,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -296,7 +346,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>13</v>
@@ -311,7 +361,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>18</v>
@@ -384,13 +434,13 @@
         <v>29</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>31</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s" s="0">
         <v>19</v>
@@ -402,6 +452,82 @@
         <v>34</v>
       </c>
       <c r="L5" t="s" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s" s="12">
         <v>24</v>
       </c>
     </row>

--- a/src/main/resources/difference.xlsx
+++ b/src/main/resources/difference.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Compare Difference Explicit Mod" r:id="rId3" sheetId="1"/>
+    <sheet name="Compare Difference" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -80,9 +80,6 @@
     <t>https://i.dummyjson.com/data/products/1/1.jpg, https://i.dummyjson.com/data/products/1/2.jpg, https://i.dummyjson.com/data/products/1/3.jpg, https://i.dummyjson.com/data/products/1/4.jpg, https://i.dummyjson.com/data/products/1/thumbnail.jpg</t>
   </si>
   <si>
-    <t>94.86</t>
-  </si>
-  <si>
     <t>master</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
   </si>
   <si>
     <t>https://i.dummyjson.com/data/products/5/1.jpg, https://i.dummyjson.com/data/products/5/2.jpg, https://i.dummyjson.com/data/products/5/3.jpg</t>
-  </si>
-  <si>
-    <t>4.0955</t>
   </si>
   <si>
     <t>15</t>
@@ -163,7 +157,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="73">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -171,6 +165,160 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
@@ -181,6 +329,160 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
@@ -190,6 +492,160 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11.0"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:family val="2"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color indexed="8"/>
+      <main:name val="Calibri"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -242,20 +698,152 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -303,232 +891,232 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" ht="15.0" customHeight="true">
+      <c r="A2" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="L2" t="s" s="1">
+      <c r="L2" t="s" s="23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="15.0" customHeight="true">
+      <c r="A3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="13">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="G3" t="n" s="18">
+        <v>94.86</v>
+      </c>
+      <c r="H3" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s" s="21">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="22">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s" s="26">
         <v>23</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s" s="0">
+    <row r="4" ht="15.0" customHeight="true">
+      <c r="A4" t="s" s="27">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s" s="28">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s" s="29">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s" s="30">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s" s="31">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s" s="32">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s" s="33">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s" s="34">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s" s="35">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s" s="36">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s" s="37">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s" s="49">
         <v>22</v>
       </c>
-      <c r="H3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s" s="0">
+    </row>
+    <row r="5" ht="15.0" customHeight="true">
+      <c r="A5" t="s" s="38">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s" s="39">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="40">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s" s="41">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s" s="42">
+        <v>28</v>
+      </c>
+      <c r="F5" t="n" s="43">
+        <v>4.0955</v>
+      </c>
+      <c r="G5" t="s" s="44">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s" s="45">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s" s="46">
         <v>19</v>
       </c>
-      <c r="J3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s" s="4">
-        <v>24</v>
+      <c r="J5" t="s" s="47">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s" s="48">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s" s="52">
+        <v>23</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s" s="0">
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" t="s" s="53">
         <v>34</v>
       </c>
-      <c r="L4" t="s" s="5">
+      <c r="B6" t="s" s="54">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s" s="55">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="56">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s" s="57">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s" s="58">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="59">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s" s="60">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s" s="61">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s" s="62">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s" s="63">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s" s="75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="64">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s" s="65">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s" s="66">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s" s="67">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s" s="68">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s" s="69">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s" s="70">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s" s="71">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s" s="72">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s" s="73">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s" s="74">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s" s="78">
         <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="L5" t="s" s="8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="L6" t="s" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s" s="12">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
